--- a/target/test-classes/dataDriven/DataProviderExcelData.xlsx
+++ b/target/test-classes/dataDriven/DataProviderExcelData.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit_panwar\eclipse-workspace\LearnSelenium\src\test\java\dataDriven\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528B188-34BF-4323-B704-25FC4C2A46F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="7350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegPage" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Rohit</t>
   </si>
   <si>
-    <t>Panwar</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -52,9 +48,6 @@
     <t>Payal</t>
   </si>
   <si>
-    <t>RP</t>
-  </si>
-  <si>
     <t>test2@gmail.com</t>
   </si>
   <si>
@@ -67,12 +60,6 @@
     <t>RK</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>KL</t>
-  </si>
-  <si>
     <t>test4@gmail.com</t>
   </si>
   <si>
@@ -83,12 +70,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,111 +415,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>9876543210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1234567890</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>654654556</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>9876543210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>654654556</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>665465465</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>665465465</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
